--- a/23.- CDS.xlsx
+++ b/23.- CDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4F8C62-64F3-DA41-BF07-C727DF0CD9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F094C9C7-86F9-AA47-A311-D69E04890573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
   </bookViews>
   <sheets>
     <sheet name="Teoría" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>CDS: Credit Default Swaps.</t>
   </si>
@@ -276,19 +276,105 @@
   </si>
   <si>
     <t>YTW</t>
+  </si>
+  <si>
+    <t>a) Cálculo de la prima del CDS</t>
+  </si>
+  <si>
+    <t>Settle</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>LGD (1-RR)</t>
+  </si>
+  <si>
+    <t>prob default</t>
+  </si>
+  <si>
+    <t>Prima Spread</t>
+  </si>
+  <si>
+    <t>spread crediticio</t>
+  </si>
+  <si>
+    <t>rf 2026</t>
+  </si>
+  <si>
+    <t>**** Tomar la rf del bono</t>
+  </si>
+  <si>
+    <t>Porque estoy calculando el spread crediticio</t>
+  </si>
+  <si>
+    <t>que esta pagando el bono, NO el CDS</t>
+  </si>
+  <si>
+    <t>Duración de Mauculay: Tiempo en ser rentable el bono (cuanto tiempo recuperas la inversión)</t>
+  </si>
+  <si>
+    <t>puntos base</t>
+  </si>
+  <si>
+    <t>Fijarse en la moneda para la rf</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>Desembolsa el PB al Seller</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>sube el RR ---&gt; Disminuye la prima spread</t>
+  </si>
+  <si>
+    <t>sube el LGD ---&gt; Sube la prima spread</t>
+  </si>
+  <si>
+    <t>sube la prob de default ---&gt; sube la prima</t>
+  </si>
+  <si>
+    <t>sube el spread crediticio ---&gt; sube la prima</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>Si RR=1, entonces Prima es 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,13 +445,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,12 +475,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,16 +500,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1478,6 +1586,116 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136769</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>212969</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>113323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634E1012-1EF3-4146-8CF3-B92090954684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11185769" y="468923"/>
+          <a:ext cx="2567354" cy="1461477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Tasa de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> recuperación (Recovery Rate)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>- Deuda Senior: 40%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>- Deuda Junior o SUB: 20% </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Spread de Credito: YTW - rf </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>LGD = 1- Recovery Rate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Prob Default: spread de crédito/LGD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1517,8 +1735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396240" y="1412240"/>
-          <a:ext cx="7772400" cy="4073757"/>
+          <a:off x="391160" y="1423963"/>
+          <a:ext cx="7820855" cy="4112834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2169,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4205BF6-21A8-7946-A309-8BB18CE71BC6}">
   <dimension ref="B1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D581A3-F763-2046-A5EC-831F641A0508}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2524,111 +2742,220 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD5C187-66F5-6B47-A36E-CEFFAD85D891}">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="19">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="19">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>Q17-Q18</f>
+        <v>1.0353000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>3.9246999999999997E-2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="20">
+        <f>Q16/N17</f>
+        <v>1.7255000000000003E-2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="21">
+        <v>105.1713</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="R22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="22">
+        <f>N22/10000</f>
+        <v>1.051713E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="23">
+        <f>N23*100*2000000</f>
+        <v>2103426</v>
+      </c>
+    </row>
+    <row r="26" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="23">
+        <f>N26*100*2000000</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="28" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.2">
@@ -2651,91 +2978,295 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649588E-EF1C-F74E-B3CC-25914DE705E4}">
-  <dimension ref="B1:C15"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="24">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="24">
+        <v>47601</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="4">
+        <f>1-L8</f>
+        <v>0.38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="5">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4.0018999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="5">
+        <f>L11-L12</f>
+        <v>2.3481000000000002E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="6">
+        <f>L13/L8</f>
+        <v>3.7872580645161295E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="21">
+        <v>52.325699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="25">
+        <f>L17/10000</f>
+        <v>5.2325699999999998E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4DBC02-2647-A24A-869B-06EA7CC8A4C7}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="24">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="24">
+        <v>46871</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="4">
+        <f>1-N10</f>
+        <v>0.8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="5">
+        <v>7.6799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="5">
+        <v>3.9030000000000002E-2</v>
+      </c>
+      <c r="P13" s="26">
+        <f>(3.804+4.0019)/2</f>
+        <v>3.9029499999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="5">
+        <f>N12-N13</f>
+        <v>3.7769999999999991E-2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="6">
+        <f>N14/N9</f>
+        <v>4.7212499999999984E-2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="21">
+        <v>136.1617</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N19" s="25">
+        <f>N18/10000</f>
+        <v>1.361617E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/23.- CDS.xlsx
+++ b/23.- CDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F094C9C7-86F9-AA47-A311-D69E04890573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F5BB4-40D0-164D-9F93-28AC393618AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
   </bookViews>
@@ -514,7 +514,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -3124,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4DBC02-2647-A24A-869B-06EA7CC8A4C7}">
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/23.- CDS.xlsx
+++ b/23.- CDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F5BB4-40D0-164D-9F93-28AC393618AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7E5213-37D1-4448-8EDB-DFB8A53257C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{223C4D70-38E2-CB4A-94D3-A5B58E3B486D}"/>
   </bookViews>
   <sheets>
     <sheet name="Teoría" sheetId="1" r:id="rId1"/>
@@ -2387,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4205BF6-21A8-7946-A309-8BB18CE71BC6}">
   <dimension ref="B1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -2744,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD5C187-66F5-6B47-A36E-CEFFAD85D891}">
   <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -2980,7 +2980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649588E-EF1C-F74E-B3CC-25914DE705E4}">
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -3124,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4DBC02-2647-A24A-869B-06EA7CC8A4C7}">
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
